--- a/8路继电器.xlsx
+++ b/8路继电器.xlsx
@@ -19,6 +19,94 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+05代表写寄存器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0000代表YO，0001代表Y1，依次类推</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+FF00代表闭合，0000代表断开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+校验算法是ModBusCRC，校验结果低位在前</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A2" authorId="0">
       <text>
         <r>
@@ -68,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>模块地址</t>
   </si>
@@ -112,6 +200,9 @@
     <t>DDFA</t>
   </si>
   <si>
+    <t>写D0多路开关量输出</t>
+  </si>
+  <si>
     <t>0110805000020402010804</t>
   </si>
   <si>
@@ -155,6 +246,18 @@
   </si>
   <si>
     <t>C1 2E</t>
+  </si>
+  <si>
+    <t>读D0多路开关量输出</t>
+  </si>
+  <si>
+    <t>010100000020</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>3D D2</t>
   </si>
 </sst>
 </file>
@@ -162,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,6 +286,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -191,7 +317,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +399,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,81 +416,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -304,22 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -340,13 +443,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,61 +587,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,103 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,37 +637,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +686,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -602,32 +715,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,142 +754,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,15 +1213,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
@@ -1169,7 +1270,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:9">
       <c r="A3" t="s">
@@ -1192,7 +1293,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:10">
       <c r="B4" s="1"/>
@@ -1203,7 +1304,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:10">
       <c r="B5" s="1"/>
@@ -1214,7 +1315,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="2:10">
       <c r="B6" s="1"/>
@@ -1225,20 +1326,25 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:12">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
@@ -1251,24 +1357,24 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1277,31 +1383,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:10">
@@ -1313,7 +1419,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:10">
       <c r="B11" s="1"/>
@@ -1324,40 +1430,57 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:10">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="2:10">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:10">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:10">
       <c r="B15" s="1"/>
@@ -1368,165 +1491,168 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:10">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:10">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:10">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
